--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3843716666666667</v>
+        <v>0.6276753333333334</v>
       </c>
       <c r="H2">
-        <v>1.153115</v>
+        <v>1.883026</v>
       </c>
       <c r="I2">
-        <v>0.009283037010184481</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="J2">
-        <v>0.009283037010184483</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4299933333333333</v>
+        <v>0.1612466666666667</v>
       </c>
       <c r="N2">
-        <v>1.28998</v>
+        <v>0.48374</v>
       </c>
       <c r="O2">
-        <v>0.1062132503660503</v>
+        <v>0.04266180225345401</v>
       </c>
       <c r="P2">
-        <v>0.1062132503660503</v>
+        <v>0.04266180225345401</v>
       </c>
       <c r="Q2">
-        <v>0.1652772541888889</v>
+        <v>0.1012105552488889</v>
       </c>
       <c r="R2">
-        <v>1.4874952877</v>
+        <v>0.91089499724</v>
       </c>
       <c r="S2">
-        <v>0.0009859815341200352</v>
+        <v>0.0006429371142048753</v>
       </c>
       <c r="T2">
-        <v>0.0009859815341200355</v>
+        <v>0.0006429371142048753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3843716666666667</v>
+        <v>0.6276753333333334</v>
       </c>
       <c r="H3">
-        <v>1.153115</v>
+        <v>1.883026</v>
       </c>
       <c r="I3">
-        <v>0.009283037010184481</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="J3">
-        <v>0.009283037010184483</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.227927</v>
       </c>
       <c r="O3">
-        <v>0.1834411140081888</v>
+        <v>0.1964844360795697</v>
       </c>
       <c r="P3">
-        <v>0.1834411140081888</v>
+        <v>0.1964844360795697</v>
       </c>
       <c r="Q3">
-        <v>0.2854506714005556</v>
+        <v>0.4661382741224445</v>
       </c>
       <c r="R3">
-        <v>2.569056042605001</v>
+        <v>4.195244467102</v>
       </c>
       <c r="S3">
-        <v>0.001702890650527487</v>
+        <v>0.002961129854961601</v>
       </c>
       <c r="T3">
-        <v>0.001702890650527488</v>
+        <v>0.002961129854961601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3843716666666667</v>
+        <v>0.6276753333333334</v>
       </c>
       <c r="H4">
-        <v>1.153115</v>
+        <v>1.883026</v>
       </c>
       <c r="I4">
-        <v>0.009283037010184481</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="J4">
-        <v>0.009283037010184483</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.627281999999999</v>
       </c>
       <c r="O4">
-        <v>0.710345635625761</v>
+        <v>0.7608537616669764</v>
       </c>
       <c r="P4">
-        <v>0.710345635625761</v>
+        <v>0.7608537616669764</v>
       </c>
       <c r="Q4">
-        <v>1.105360920381111</v>
+        <v>1.805044035036889</v>
       </c>
       <c r="R4">
-        <v>9.948248283430001</v>
+        <v>16.245396315332</v>
       </c>
       <c r="S4">
-        <v>0.00659416482553696</v>
+        <v>0.01146648983443929</v>
       </c>
       <c r="T4">
-        <v>0.00659416482553696</v>
+        <v>0.01146648983443929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>79.91645</v>
       </c>
       <c r="I5">
-        <v>0.6433593900630531</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="J5">
-        <v>0.6433593900630532</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4299933333333333</v>
+        <v>0.1612466666666667</v>
       </c>
       <c r="N5">
-        <v>1.28998</v>
+        <v>0.48374</v>
       </c>
       <c r="O5">
-        <v>0.1062132503660503</v>
+        <v>0.04266180225345401</v>
       </c>
       <c r="P5">
-        <v>0.1062132503660503</v>
+        <v>0.04266180225345401</v>
       </c>
       <c r="Q5">
-        <v>11.45451357455555</v>
+        <v>4.295420391444445</v>
       </c>
       <c r="R5">
-        <v>103.090622171</v>
+        <v>38.658783523</v>
       </c>
       <c r="S5">
-        <v>0.06833329197211647</v>
+        <v>0.02728653334606012</v>
       </c>
       <c r="T5">
-        <v>0.06833329197211647</v>
+        <v>0.02728653334606012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>79.91645</v>
       </c>
       <c r="I6">
-        <v>0.6433593900630531</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="J6">
-        <v>0.6433593900630532</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.227927</v>
       </c>
       <c r="O6">
-        <v>0.1834411140081888</v>
+        <v>0.1964844360795697</v>
       </c>
       <c r="P6">
-        <v>0.1834411140081888</v>
+        <v>0.1964844360795697</v>
       </c>
       <c r="Q6">
         <v>19.78311296657223</v>
@@ -818,10 +818,10 @@
         <v>178.04801669915</v>
       </c>
       <c r="S6">
-        <v>0.1180185632207953</v>
+        <v>0.1256716508415423</v>
       </c>
       <c r="T6">
-        <v>0.1180185632207953</v>
+        <v>0.1256716508415423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>79.91645</v>
       </c>
       <c r="I7">
-        <v>0.6433593900630531</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="J7">
-        <v>0.6433593900630532</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.627281999999999</v>
       </c>
       <c r="O7">
-        <v>0.710345635625761</v>
+        <v>0.7608537616669764</v>
       </c>
       <c r="P7">
-        <v>0.710345635625761</v>
+        <v>0.7608537616669764</v>
       </c>
       <c r="Q7">
         <v>76.60686117654444</v>
@@ -880,10 +880,10 @@
         <v>689.4617505888999</v>
       </c>
       <c r="S7">
-        <v>0.4570075348701414</v>
+        <v>0.4866428618242531</v>
       </c>
       <c r="T7">
-        <v>0.4570075348701415</v>
+        <v>0.4866428618242531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>43.147865</v>
       </c>
       <c r="I8">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845387</v>
       </c>
       <c r="J8">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845388</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4299933333333333</v>
+        <v>0.1612466666666667</v>
       </c>
       <c r="N8">
-        <v>1.28998</v>
+        <v>0.48374</v>
       </c>
       <c r="O8">
-        <v>0.1062132503660503</v>
+        <v>0.04266180225345401</v>
       </c>
       <c r="P8">
-        <v>0.1062132503660503</v>
+        <v>0.04266180225345401</v>
       </c>
       <c r="Q8">
-        <v>6.184431432522221</v>
+        <v>2.319149801677778</v>
       </c>
       <c r="R8">
-        <v>55.65988289269999</v>
+        <v>20.8723482151</v>
       </c>
       <c r="S8">
-        <v>0.03689397685981378</v>
+        <v>0.01473233179318901</v>
       </c>
       <c r="T8">
-        <v>0.03689397685981378</v>
+        <v>0.01473233179318902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.147865</v>
       </c>
       <c r="I9">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845387</v>
       </c>
       <c r="J9">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845388</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.227927</v>
       </c>
       <c r="O9">
-        <v>0.1834411140081888</v>
+        <v>0.1964844360795697</v>
       </c>
       <c r="P9">
-        <v>0.1834411140081888</v>
+        <v>0.1964844360795697</v>
       </c>
       <c r="Q9">
         <v>10.68114371398389</v>
       </c>
       <c r="R9">
-        <v>96.130293425855</v>
+        <v>96.13029342585502</v>
       </c>
       <c r="S9">
-        <v>0.06371966013686596</v>
+        <v>0.06785165538306574</v>
       </c>
       <c r="T9">
-        <v>0.06371966013686596</v>
+        <v>0.06785165538306576</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.147865</v>
       </c>
       <c r="I10">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845387</v>
       </c>
       <c r="J10">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845388</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>8.627281999999999</v>
       </c>
       <c r="O10">
-        <v>0.710345635625761</v>
+        <v>0.7608537616669764</v>
       </c>
       <c r="P10">
-        <v>0.710345635625761</v>
+        <v>0.7608537616669764</v>
       </c>
       <c r="Q10">
-        <v>41.36097767254777</v>
+        <v>41.36097767254778</v>
       </c>
       <c r="R10">
-        <v>372.2487990529299</v>
+        <v>372.24879905293</v>
       </c>
       <c r="S10">
-        <v>0.2467439359300826</v>
+        <v>0.262744410008284</v>
       </c>
       <c r="T10">
-        <v>0.2467439359300826</v>
+        <v>0.262744410008284</v>
       </c>
     </row>
   </sheetData>
